--- a/biology/Botanique/Cicutaire/Cicutaire.xlsx
+++ b/biology/Botanique/Cicutaire/Cicutaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicuta
-Le genre Cicuta, plantes herbacées de la famille des Apiaceae (autrefois ombellifères) ne compte, en Europe, qu'une seule espèce : Cicuta virosa, ciguë aquatique[1].  C'est une plante très vénéneuse, fleurissant de juillet à septembre, à laquelle les animaux touchent rarement (les chèvres et les porcs avaient cependant la réputation de pouvoir la manger sans en être incommodés)[2].
+Le genre Cicuta, plantes herbacées de la famille des Apiaceae (autrefois ombellifères) ne compte, en Europe, qu'une seule espèce : Cicuta virosa, ciguë aquatique.  C'est une plante très vénéneuse, fleurissant de juillet à septembre, à laquelle les animaux touchent rarement (les chèvres et les porcs avaient cependant la réputation de pouvoir la manger sans en être incommodés).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce croît sur le berges de mares et ruisseaux.
 </t>
@@ -543,9 +557,11 @@
           <t>Aires de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la fin du XIXe siècle, on la considérait comme « assez rare en France, et plus commune en Allemagne »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du XIXe siècle, on la considérait comme « assez rare en France, et plus commune en Allemagne ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Usages pharmacologiques ?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1872, Rodet et Baillet estimaient qu'« elle pourrait être employée en médecine au même titre que la grande Ciguë »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1872, Rodet et Baillet estimaient qu'« elle pourrait être employée en médecine au même titre que la grande Ciguë ».
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (6 juin 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (6 juin 2022) :
 Cicuta ampla Greene
 Cicuta bulbifera L.
 Cicuta crassifolia Nutt.
